--- a/iDVC申请表格.xlsx
+++ b/iDVC申请表格.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Research\DIC-DVC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E607C73-2447-47AB-9140-511D1360E9FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E54A57C-149D-486A-8F31-608D0A61BF24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-17388" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -137,42 +137,54 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>邮箱（</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>研究方向</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>主机名称</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>CPU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>序列号</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="仿宋"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>请使用机构邮箱</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>研究方向</t>
-    </r>
+      <t>秘钥（返回字符串）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机构单位邮箱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -193,63 +205,12 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>iDVC/FreeDIC?</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>主机名称</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>CPU</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>序列号</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>秘钥（返回字符串）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>论文，网页检索、推荐、其它</t>
-    </r>
+      <t>iDVC?</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>论文、网页检索、推荐、其它</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -257,7 +218,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -334,6 +295,13 @@
       <color rgb="FF666666"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -378,7 +346,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -386,6 +354,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -670,7 +641,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -705,23 +676,23 @@
       <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.45" x14ac:dyDescent="0.4">
@@ -740,7 +711,7 @@
       <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="9" t="s">
         <v>18</v>
       </c>
       <c r="G3" s="1" t="s">
